--- a/Question_Set2/Programming skills/Web Accessibility for Developers.xlsx
+++ b/Question_Set2/Programming skills/Web Accessibility for Developers.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are the lead developer of a web application, and a team member has created a form using only &amp;ltdiv&amp;gt tags. The tags are subsequently decorated with CSS and animated with JavaScript to perform the functionality required for the form. How can you improve the accessibility of this form using semantic HTML?', 'ques_type': 2, 'options': ['Use meaningful, built-in HTML tags like &amp;ltform&amp;gt, &amp;ltinput&amp;gt, and &amp;ltbutton&amp;gt.', 'Use programmable HTML5 tags like &amp;ltcanvas&amp;gt instead of &amp;ltdiv&amp;gt.', 'Add the role tag to the &amp;ltdiv&amp;gt to show that it’s part of a form.', 'Add the alt tag to the &amp;ltdiv&amp;gt to describe what it does.'], 'score': 'Use meaningful, built-in HTML tags like &amp;ltform&amp;gt, &amp;ltinput&amp;gt, and &amp;ltbutton&amp;gt.'}, {'title': 'The web application you’ve created can be served in a few different languages, determined by a variable in the URL. You want to make it easier for search engines, browsers, and screen readers to determine the language of the text on your site.How can you specify the language with HTML?', 'ques_type': 2, 'options': ['Use the &amp;ltlang&amp;gt tag inside of the body.', 'Add a Google Translate blurb to the page’s &amp;ltmeta&amp;gt tag.', 'Specify the language with the lang attribute to the top-level &amp;lthtml&amp;gt tag.', 'Include the full name of the language in the URL variable.'], 'score': 'Specify the language with the lang attribute to the top-level &amp;lthtml&amp;gt tag.'}, {'title': 'One of the elements on your website is dynamically loaded using JavaScript and contains urgent notifications that you do not want the user to ignore. You want screen readers to alert readers of this change when it occurs.How can you ensure that screen readers pay attention to changes to this element?', 'ques_type': 2, 'options': ['Load the change via AJAX.', 'Load the change via CSS instead of JavaScript.', 'Add the aria-disabled attribute.', 'Add the role=”alert” attribute.'], 'score': 'Add the role=”alert” attribute.'}, {'title': 'A colleague has created a grayscale color scheme for your company’s website. It consists of two shades: one for the foreground and another for the background. The two shades in the scheme are hard to distinguish for visually impaired readers, and you have been tasked with finding potential solutions that will improve the situation.True or false: You can make the color schema friendlier to color-blind readers by increasing the contrast ratio.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You are the lead developer of a web application, and a team member has created a form using only &amp;ltdiv&amp;gt tags. The tags are subsequently decorated with CSS and animated with JavaScript to perform the functionality required for the form. How can you improve the accessibility of this form using semantic HTML?",
+        "ques_type": 2,
+        "options": [
+            "Use meaningful, built-in HTML tags like &amp;ltform&amp;gt, &amp;ltinput&amp;gt, and &amp;ltbutton&amp;gt.",
+            "Use programmable HTML5 tags like &amp;ltcanvas&amp;gt instead of &amp;ltdiv&amp;gt.",
+            "Add the role tag to the &amp;ltdiv&amp;gt to show that it\u2019s part of a form.",
+            "Add the alt tag to the &amp;ltdiv&amp;gt to describe what it does."
+        ],
+        "score": "Use meaningful, built-in HTML tags like &amp;ltform&amp;gt, &amp;ltinput&amp;gt, and &amp;ltbutton&amp;gt."
+    },
+    {
+        "title": "The web application you\u2019ve created can be served in a few different languages, determined by a variable in the URL. You want to make it easier for search engines, browsers, and screen readers to determine the language of the text on your site.How can you specify the language with HTML?",
+        "ques_type": 2,
+        "options": [
+            "Use the &amp;ltlang&amp;gt tag inside of the body.",
+            "Add a Google Translate blurb to the page\u2019s &amp;ltmeta&amp;gt tag.",
+            "Specify the language with the lang attribute to the top-level &amp;lthtml&amp;gt tag.",
+            "Include the full name of the language in the URL variable."
+        ],
+        "score": "Specify the language with the lang attribute to the top-level &amp;lthtml&amp;gt tag."
+    },
+    {
+        "title": "One of the elements on your website is dynamically loaded using JavaScript and contains urgent notifications that you do not want the user to ignore. You want screen readers to alert readers of this change when it occurs.How can you ensure that screen readers pay attention to changes to this element?",
+        "ques_type": 2,
+        "options": [
+            "Load the change via AJAX.",
+            "Load the change via CSS instead of JavaScript.",
+            "Add the aria-disabled attribute.",
+            "Add the role=\u201dalert\u201d attribute."
+        ],
+        "score": "Add the role=\u201dalert\u201d attribute."
+    },
+    {
+        "title": "A colleague has created a grayscale color scheme for your company\u2019s website. It consists of two shades: one for the foreground and another for the background. The two shades in the scheme are hard to distinguish for visually impaired readers, and you have been tasked with finding potential solutions that will improve the situation.True or false: You can make the color schema friendlier to color-blind readers by increasing the contrast ratio.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
